--- a/src/Pickles/MIL_pickles/Output/AN220/AN220_TestScript_Desktop_Analysis_Validation_UR.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN220/AN220_TestScript_Desktop_Analysis_Validation_UR.xlsx
@@ -23,9 +23,8 @@
     <x:sheet name="RADIOGRAPHQUALITYGRADING" sheetId="16" r:id="rId16"/>
     <x:sheet name="REPOSITIONCARIESROI" sheetId="17" r:id="rId17"/>
     <x:sheet name="SHOWPROGRESS" sheetId="18" r:id="rId18"/>
-    <x:sheet name="SUBMITIMAGES" sheetId="19" r:id="rId19"/>
-    <x:sheet name="TEXTREPORTEXPORT" sheetId="20" r:id="rId20"/>
-    <x:sheet name="TOGGLEANNOTATIONVISIBILITY" sheetId="21" r:id="rId21"/>
+    <x:sheet name="TEXTREPORTEXPORT" sheetId="19" r:id="rId19"/>
+    <x:sheet name="TOGGLEANNOTATIONVISIBILITY" sheetId="20" r:id="rId20"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="268">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
   <x:si>
     <x:t>AddCariesROI</x:t>
   </x:si>
@@ -593,13 +592,13 @@
     <x:t>the radiograph has been analysed</x:t>
   </x:si>
   <x:si>
-    <x:t>I see the width and height displayed within the clinical report</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I see a rating label for the resolution within the clinical report</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the status for the resolution is displayed within the clinical report</x:t>
+    <x:t>I see the width and height displayed within the radiograph quality report</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I see a rating label for the resolution within the radiograph quality report</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the status for the resolution is displayed within the radiograph quality report</x:t>
   </x:si>
   <x:si>
     <x:t>GrayScaleRadiograph</x:t>
@@ -608,10 +607,10 @@
     <x:t>@UR040-02</x:t>
   </x:si>
   <x:si>
-    <x:t>I see the gray scale flag displayed within the clinical report</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the status for the gray scale flag is displayed within the clinical report</x:t>
+    <x:t>I see the gray scale flag displayed within the radiograph quality report</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the status for the gray scale flag is displayed within the radiograph quality report</x:t>
   </x:si>
   <x:si>
     <x:t>ContrastRadiograph</x:t>
@@ -620,13 +619,13 @@
     <x:t>@UR040-03</x:t>
   </x:si>
   <x:si>
-    <x:t>I see the contrast metric displayed within the clinical report</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I see a rating label for the contrast metric within the clinical report</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the status for the contrast metric is displayed within the clinical report</x:t>
+    <x:t>I see the contrast metric displayed within the radiograph quality report</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I see a rating label for the contrast metric within the radiograph quality report</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the status for the contrast metric is displayed within the radiograph quality report</x:t>
   </x:si>
   <x:si>
     <x:t>BlurRadiograph</x:t>
@@ -635,13 +634,13 @@
     <x:t>@UR040-04</x:t>
   </x:si>
   <x:si>
-    <x:t>I see the blur metric displayed within the clinical report</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I see a rating label for the blur metric within the clinical report</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the status for the blur metric is displayed within the clinical report</x:t>
+    <x:t>I see the blur metric displayed within the radiograph quality report</x:t>
+  </x:si>
+  <x:si>
+    <x:t>I see a rating label for the blur metric within the radiograph quality report</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the status for the blur metric is displayed within the radiograph quality report</x:t>
   </x:si>
   <x:si>
     <x:t>RepositionCariesROI</x:t>
@@ -733,74 +732,6 @@
   </x:si>
   <x:si>
     <x:t>the analysis status is reported at relevant stages</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SubmitImages</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@UR, @UR016, @Analysis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>As a dentist
-I want to submit one or more images for analysis
-So that I can request caries detection on my patients' images</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SubmitSingleImage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@UR016-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I am authorized with analysis permissions</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I navigate to the Analysis page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I browse for a single bitewing image</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the image is sent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>results are displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SubmitMultipleImages</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@UR016-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I browse and select 2 bitewing images</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the images are sent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the images are displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>results for both images are displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SubmitTiffImage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@UR016-3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I browse for a single tiff bitewing image</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SubmitDICOMImage</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@UR016-4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I browse for a single DICOM bitewing image</x:t>
   </x:si>
   <x:si>
     <x:t>TextReportExport</x:t>
@@ -1279,7 +1210,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B20"/>
+  <x:dimension ref="A1:B19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1287,7 +1218,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="1" t="s">
-        <x:v>267</x:v>
+        <x:v>245</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
@@ -1377,12 +1308,7 @@
     </x:row>
     <x:row r="19" spans="1:2">
       <x:c r="B19" s="4" t="s">
-        <x:v>244</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:2">
-      <x:c r="B20" s="4" t="s">
-        <x:v>255</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1403,9 +1329,8 @@
     <x:hyperlink ref="B15" location="'RADIOGRAPHQUALITYGRADING'!A1" display="RadiographQualityGrading"/>
     <x:hyperlink ref="B16" location="'REPOSITIONCARIESROI'!A1" display="RepositionCariesROI"/>
     <x:hyperlink ref="B17" location="'SHOWPROGRESS'!A1" display="ShowProgress"/>
-    <x:hyperlink ref="B18" location="'SUBMITIMAGES'!A1" display="SubmitImages"/>
-    <x:hyperlink ref="B19" location="'TEXTREPORTEXPORT'!A1" display="TextReportExport"/>
-    <x:hyperlink ref="B20" location="'TOGGLEANNOTATIONVISIBILITY'!A1" display="ToggleAnnotationVisibility"/>
+    <x:hyperlink ref="B18" location="'TEXTREPORTEXPORT'!A1" display="TextReportExport"/>
+    <x:hyperlink ref="B19" location="'TOGGLEANNOTATIONVISIBILITY'!A1" display="ToggleAnnotationVisibility"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1752,7 +1677,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D43"/>
+  <x:dimension ref="A1:D22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1795,31 +1720,31 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="C9" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="C10" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>229</x:v>
+        <x:v>227</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="C11" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>230</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
@@ -1827,61 +1752,61 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>153</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:4">
-      <x:c r="C13" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
+        <x:v>229</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:4">
+      <x:c r="B14" s="1" t="s">
+        <x:v>230</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:4">
+      <x:c r="B15" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>231</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:4">
-      <x:c r="B15" s="1" t="s">
-        <x:v>232</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:4">
-      <x:c r="B16" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C16" s="2" t="s">
-        <x:v>233</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:4"/>
+    <x:row r="16" spans="1:4"/>
+    <x:row r="17" spans="1:4">
+      <x:c r="C17" s="3" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
     <x:row r="18" spans="1:4">
       <x:c r="C18" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>227</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
       <x:c r="C19" s="3" t="s">
-        <x:v>11</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>228</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
       <x:c r="C20" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>234</x:v>
+        <x:v>232</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
       <x:c r="C21" s="3" t="s">
-        <x:v>9</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>235</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4">
@@ -1889,139 +1814,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>236</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:4">
-      <x:c r="C23" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D23" s="0" t="s">
-        <x:v>237</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:4">
-      <x:c r="B25" s="1" t="s">
-        <x:v>238</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:4">
-      <x:c r="B26" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>239</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:4"/>
-    <x:row r="28" spans="1:4">
-      <x:c r="C28" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>227</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:4">
-      <x:c r="C29" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D29" s="0" t="s">
-        <x:v>228</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:4">
-      <x:c r="C30" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D30" s="0" t="s">
-        <x:v>240</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="31" spans="1:4">
-      <x:c r="C31" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D31" s="0" t="s">
-        <x:v>230</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="32" spans="1:4">
-      <x:c r="C32" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D32" s="0" t="s">
-        <x:v>153</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="33" spans="1:4">
-      <x:c r="C33" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D33" s="0" t="s">
-        <x:v>231</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="35" spans="1:4">
-      <x:c r="B35" s="1" t="s">
-        <x:v>241</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="36" spans="1:4">
-      <x:c r="B36" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>242</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="37" spans="1:4"/>
-    <x:row r="38" spans="1:4">
-      <x:c r="C38" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D38" s="0" t="s">
-        <x:v>227</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="39" spans="1:4">
-      <x:c r="C39" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D39" s="0" t="s">
-        <x:v>228</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="40" spans="1:4">
-      <x:c r="C40" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D40" s="0" t="s">
-        <x:v>243</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="41" spans="1:4">
-      <x:c r="C41" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D41" s="0" t="s">
-        <x:v>230</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="42" spans="1:4">
-      <x:c r="C42" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D42" s="0" t="s">
-        <x:v>153</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="43" spans="1:4">
-      <x:c r="C43" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D43" s="0" t="s">
-        <x:v>231</x:v>
+        <x:v>229</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2038,160 +1831,6 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D22"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:4">
-      <x:c r="A1" s="1" t="s">
-        <x:v>244</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="B2" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>245</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4">
-      <x:c r="B3" s="0" t="s">
-        <x:v>246</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="B5" s="1" t="s">
-        <x:v>247</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:4">
-      <x:c r="B6" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>248</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4"/>
-    <x:row r="8" spans="1:4">
-      <x:c r="C8" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>130</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:4">
-      <x:c r="C9" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>131</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="C10" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>249</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:4">
-      <x:c r="C11" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>250</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:4">
-      <x:c r="C12" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>251</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:4">
-      <x:c r="B14" s="1" t="s">
-        <x:v>252</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:4">
-      <x:c r="B15" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C15" s="2" t="s">
-        <x:v>253</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:4"/>
-    <x:row r="17" spans="1:4">
-      <x:c r="C17" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>130</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:4">
-      <x:c r="C18" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>136</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:4">
-      <x:c r="C19" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>137</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:4">
-      <x:c r="C20" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>254</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:4">
-      <x:c r="C21" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>250</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:4">
-      <x:c r="C22" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>251</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
   <x:dimension ref="A1:D20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
@@ -2200,7 +1839,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>255</x:v>
+        <x:v>233</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -2208,17 +1847,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>256</x:v>
+        <x:v>234</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>257</x:v>
+        <x:v>235</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>258</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -2226,7 +1865,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>259</x:v>
+        <x:v>237</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -2251,7 +1890,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>260</x:v>
+        <x:v>238</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -2259,12 +1898,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>261</x:v>
+        <x:v>239</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="B13" s="1" t="s">
-        <x:v>262</x:v>
+        <x:v>240</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
@@ -2272,7 +1911,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>263</x:v>
+        <x:v>241</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4"/>
@@ -2297,7 +1936,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>264</x:v>
+        <x:v>242</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -2305,7 +1944,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>265</x:v>
+        <x:v>243</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -2313,7 +1952,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>266</x:v>
+        <x:v>244</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
